--- a/2022/Price List/Updated Price List  17.05.2022.xlsx
+++ b/2022/Price List/Updated Price List  17.05.2022.xlsx
@@ -638,14 +638,17 @@
     <xf numFmtId="43" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,9 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3010,7 +3010,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3026,26 +3026,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -4313,20 +4313,20 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28" t="s">
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="31" t="s">
+      <c r="E58" s="30"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="H58" s="24"/>
+      <c r="H58" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
